--- a/test-Data/All_Entropies.xlsx
+++ b/test-Data/All_Entropies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GreedyHistogramApp\Data\Entropy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\This Desktop Data\my old laptop desktop data\Research Papers new submissions\Novel works in PoolRunner\Greedy Binning\Paper\Results of Entropy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D7520A-2DC2-4D27-B341-CEC3720F7B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69484EBA-90FE-43B6-8049-43F609A13A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15221,16 +15221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15559,7 +15559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G367" sqref="G367:I367"/>
     </sheetView>
   </sheetViews>
@@ -35445,27 +35445,27 @@
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J363" s="2">
-        <f>AVERAGE(J2:J361)</f>
+        <f t="shared" ref="J363:O363" si="36">AVERAGE(J2:J361)</f>
         <v>3.7224004388888887</v>
       </c>
       <c r="K363" s="2">
-        <f>AVERAGE(K2:K361)</f>
+        <f t="shared" si="36"/>
         <v>4.4056638833333333</v>
       </c>
       <c r="L363" s="2">
-        <f>AVERAGE(L2:L361)</f>
+        <f t="shared" si="36"/>
         <v>4.5669093722222227</v>
       </c>
       <c r="M363" s="2">
-        <f>AVERAGE(M2:M361)</f>
+        <f t="shared" si="36"/>
         <v>3.5303033249999998</v>
       </c>
       <c r="N363" s="2">
-        <f>AVERAGE(N2:N361)</f>
+        <f t="shared" si="36"/>
         <v>2.2966140777777779</v>
       </c>
       <c r="O363" s="2">
-        <f>AVERAGE(O2:O361)</f>
+        <f t="shared" si="36"/>
         <v>3.1968496027777791</v>
       </c>
     </row>
